--- a/SS3 models/VALO/50_Base/forecast/04_Proj_Table.xlsx
+++ b/SS3 models/VALO/50_Base/forecast/04_Proj_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve">ProbOverfishing</t>
   </si>
@@ -35,592 +35,361 @@
     <t xml:space="preserve">0.50</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32</t>
+    <t xml:space="preserve">1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
   </si>
   <si>
     <t xml:space="preserve">0.49</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27</t>
+    <t xml:space="preserve">1.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
   </si>
   <si>
     <t xml:space="preserve">0.48</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18</t>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
   </si>
   <si>
     <t xml:space="preserve">0.47</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16</t>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
   </si>
   <si>
     <t xml:space="preserve">0.46</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11</t>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
   </si>
   <si>
     <t xml:space="preserve">0.45</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06</t>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
   </si>
   <si>
     <t xml:space="preserve">0.44</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01</t>
+    <t xml:space="preserve">1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
   </si>
   <si>
     <t xml:space="preserve">0.43</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
   </si>
   <si>
     <t xml:space="preserve">0.42</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91</t>
+    <t xml:space="preserve">1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
   </si>
   <si>
     <t xml:space="preserve">0.41</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86</t>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
   </si>
   <si>
     <t xml:space="preserve">0.40</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81</t>
+    <t xml:space="preserve">1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
   </si>
   <si>
     <t xml:space="preserve">0.39</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76</t>
+    <t xml:space="preserve">1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
   </si>
   <si>
     <t xml:space="preserve">0.38</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72</t>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
   </si>
   <si>
     <t xml:space="preserve">0.37</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67</t>
+    <t xml:space="preserve">0.94</t>
   </si>
   <si>
     <t xml:space="preserve">0.36</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62</t>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93</t>
   </si>
   <si>
     <t xml:space="preserve">0.35</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58</t>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
   </si>
   <si>
     <t xml:space="preserve">0.34</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
+    <t xml:space="preserve">0.91</t>
   </si>
   <si>
     <t xml:space="preserve">0.33</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49</t>
+    <t xml:space="preserve">0.90</t>
   </si>
   <si>
     <t xml:space="preserve">0.32</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45</t>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
   </si>
   <si>
     <t xml:space="preserve">0.31</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
+    <t xml:space="preserve">0.88</t>
   </si>
   <si>
     <t xml:space="preserve">0.30</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65</t>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
   </si>
   <si>
     <t xml:space="preserve">1.37</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82</t>
   </si>
   <si>
     <t xml:space="preserve">0.25</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
+    <t xml:space="preserve">0.81</t>
   </si>
   <si>
     <t xml:space="preserve">0.24</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13</t>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80</t>
   </si>
   <si>
     <t xml:space="preserve">0.23</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
+    <t xml:space="preserve">0.79</t>
   </si>
   <si>
     <t xml:space="preserve">0.22</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
+    <t xml:space="preserve">0.78</t>
   </si>
   <si>
     <t xml:space="preserve">0.21</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
+    <t xml:space="preserve">0.77</t>
   </si>
   <si>
     <t xml:space="preserve">0.20</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
+    <t xml:space="preserve">0.75</t>
   </si>
   <si>
     <t xml:space="preserve">0.19</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
+    <t xml:space="preserve">0.74</t>
   </si>
   <si>
     <t xml:space="preserve">0.18</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
+    <t xml:space="preserve">0.73</t>
   </si>
   <si>
     <t xml:space="preserve">0.17</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
   </si>
   <si>
     <t xml:space="preserve">0.16</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
+    <t xml:space="preserve">0.71</t>
   </si>
   <si>
     <t xml:space="preserve">0.15</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82</t>
+    <t xml:space="preserve">0.70</t>
   </si>
   <si>
     <t xml:space="preserve">0.14</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
+    <t xml:space="preserve">0.69</t>
   </si>
   <si>
     <t xml:space="preserve">0.13</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
+    <t xml:space="preserve">0.68</t>
   </si>
   <si>
     <t xml:space="preserve">0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27</t>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
   </si>
   <si>
     <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
   </si>
 </sst>
 </file>
@@ -997,799 +766,799 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
